--- a/data/landings/cdfw/public/fish_bulletins/raw/fb108/raw/Table22.xlsx
+++ b/data/landings/cdfw/public/fish_bulletins/raw/fb108/raw/Table22.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/cfree/Dropbox/Chris/UCSB/projects/wc_cc_synthesis/data/landings/cdfw/public/fish_bulletins/raw/fb108/raw/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{61AF9781-4859-C849-AC13-100B07A090A3}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5911289D-E159-6B46-B127-D5596ADD6487}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="21200" yWindow="4360" windowWidth="25600" windowHeight="15540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="185" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="186" uniqueCount="74">
   <si>
     <t>Value</t>
   </si>
@@ -607,8 +607,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D98"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="I23" sqref="I23"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -635,8 +635,11 @@
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A2" s="1" t="s">
+        <v>2</v>
+      </c>
       <c r="B2" s="1" t="s">
-        <v>2</v>
+        <v>23</v>
       </c>
       <c r="C2" s="2">
         <v>35834787</v>

--- a/data/landings/cdfw/public/fish_bulletins/raw/fb108/raw/Table22.xlsx
+++ b/data/landings/cdfw/public/fish_bulletins/raw/fb108/raw/Table22.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/cfree/Dropbox/Chris/UCSB/projects/wc_cc_synthesis/data/landings/cdfw/public/fish_bulletins/raw/fb108/raw/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5911289D-E159-6B46-B127-D5596ADD6487}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D587A592-FF43-C642-87F0-FCC398A85BC2}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="21200" yWindow="4360" windowWidth="25600" windowHeight="15540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="186" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="186" uniqueCount="73">
   <si>
     <t>Value</t>
   </si>
@@ -100,9 +100,6 @@
     <t xml:space="preserve">Spinv lobster  </t>
   </si>
   <si>
-    <t>('alifortil barracuda</t>
-  </si>
-  <si>
     <t xml:space="preserve">Sardine  </t>
   </si>
   <si>
@@ -127,9 +124,6 @@
     <t xml:space="preserve">California immpano </t>
   </si>
   <si>
-    <t>('abrilla</t>
-  </si>
-  <si>
     <t>Alhacore</t>
   </si>
   <si>
@@ -242,6 +236,9 @@
   </si>
   <si>
     <t>Total check</t>
+  </si>
+  <si>
+    <t>Cabrilla</t>
   </si>
 </sst>
 </file>
@@ -607,8 +604,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D98"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView tabSelected="1" topLeftCell="A18" workbookViewId="0">
+      <selection activeCell="C42" sqref="C42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -653,7 +650,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C4" s="2">
         <v>14887904</v>
@@ -667,7 +664,7 @@
         <v>3</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C5" s="2">
         <v>7112516</v>
@@ -723,7 +720,7 @@
         <v>3</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C9" s="2">
         <v>670131</v>
@@ -832,7 +829,7 @@
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B17" s="3" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="C17" s="4">
         <f>SUM(C4:C15)-C16</f>
@@ -890,7 +887,7 @@
         <v>4</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C21" s="2">
         <v>80586</v>
@@ -904,7 +901,7 @@
         <v>4</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>26</v>
+        <v>57</v>
       </c>
       <c r="C22" s="2">
         <v>57237</v>
@@ -918,10 +915,10 @@
         <v>4</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C23" s="2">
-        <v>56037</v>
+        <v>56067</v>
       </c>
       <c r="D23" s="2">
         <v>1826293</v>
@@ -932,7 +929,7 @@
         <v>4</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C24" s="2">
         <v>51881</v>
@@ -946,7 +943,7 @@
         <v>4</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="C25" s="2">
         <v>39928</v>
@@ -974,7 +971,7 @@
         <v>4</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C27" s="2">
         <v>37973</v>
@@ -988,7 +985,7 @@
         <v>4</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="C28" s="2">
         <v>37843</v>
@@ -1002,7 +999,7 @@
         <v>4</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C29" s="2">
         <v>34125</v>
@@ -1016,7 +1013,7 @@
         <v>4</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C30" s="2">
         <v>32690</v>
@@ -1030,7 +1027,7 @@
         <v>4</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C31" s="2">
         <v>16312</v>
@@ -1044,7 +1041,7 @@
         <v>4</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C32" s="2">
         <v>15352</v>
@@ -1058,7 +1055,7 @@
         <v>4</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C33" s="2">
         <v>14174</v>
@@ -1072,7 +1069,7 @@
         <v>4</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C34" s="2">
         <v>12208</v>
@@ -1086,7 +1083,7 @@
         <v>4</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>35</v>
+        <v>72</v>
       </c>
       <c r="C35" s="2">
         <v>11344</v>
@@ -1100,7 +1097,7 @@
         <v>4</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C36" s="2">
         <v>10105</v>
@@ -1114,7 +1111,7 @@
         <v>4</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C37" s="2">
         <v>9205</v>
@@ -1128,7 +1125,7 @@
         <v>4</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C38" s="2">
         <v>9122</v>
@@ -1142,7 +1139,7 @@
         <v>4</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C39" s="2">
         <v>8535</v>
@@ -1156,7 +1153,7 @@
         <v>4</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C40" s="2">
         <v>6808</v>
@@ -1195,11 +1192,11 @@
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B43" s="3" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="C43" s="4">
         <f>SUM(C18:C41)-C42</f>
-        <v>-30</v>
+        <v>0</v>
       </c>
       <c r="D43" s="4">
         <f>SUM(D18:D41)-D42</f>
@@ -1211,7 +1208,7 @@
         <v>5</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C44" s="2">
         <v>183067</v>
@@ -1225,7 +1222,7 @@
         <v>5</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C45" s="2">
         <v>104895</v>
@@ -1239,7 +1236,7 @@
         <v>5</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C46" s="2">
         <v>47214</v>
@@ -1267,7 +1264,7 @@
         <v>5</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C48" s="2">
         <v>43460</v>
@@ -1281,7 +1278,7 @@
         <v>5</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C49" s="2">
         <v>13771</v>
@@ -1295,7 +1292,7 @@
         <v>5</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C50" s="2">
         <v>13207</v>
@@ -1309,7 +1306,7 @@
         <v>5</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C51" s="2">
         <v>13124</v>
@@ -1323,7 +1320,7 @@
         <v>5</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C52" s="2">
         <v>5085</v>
@@ -1337,7 +1334,7 @@
         <v>5</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C53" s="2">
         <v>5010</v>
@@ -1376,7 +1373,7 @@
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B56" s="3" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="C56" s="4">
         <f>SUM(C44:C54)-C55</f>
@@ -1389,10 +1386,10 @@
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A57" s="1" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C57" s="2">
         <v>254576</v>
@@ -1403,10 +1400,10 @@
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A58" s="1" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C58" s="2">
         <v>59766</v>
@@ -1417,10 +1414,10 @@
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A59" s="1" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C59" s="2">
         <v>49157</v>
@@ -1431,7 +1428,7 @@
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A60" s="1" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="B60" s="1" t="s">
         <v>16</v>
@@ -1445,10 +1442,10 @@
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A61" s="1" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C61" s="2">
         <v>31227</v>
@@ -1459,10 +1456,10 @@
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A62" s="1" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C62" s="2">
         <v>15044</v>
@@ -1473,7 +1470,7 @@
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A63" s="1" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="B63" s="1" t="s">
         <v>22</v>
@@ -1487,10 +1484,10 @@
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A64" s="1" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C64" s="2">
         <v>446262</v>
@@ -1501,7 +1498,7 @@
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B65" s="3" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="C65" s="4">
         <f>SUM(C57:C63)-C64</f>
@@ -1517,7 +1514,7 @@
         <v>6</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C66" s="2">
         <v>115267</v>
@@ -1531,7 +1528,7 @@
         <v>6</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C67" s="2">
         <v>106004</v>
@@ -1545,7 +1542,7 @@
         <v>6</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C68" s="2">
         <v>35618</v>
@@ -1559,7 +1556,7 @@
         <v>6</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C69" s="2">
         <v>11938</v>
@@ -1573,7 +1570,7 @@
         <v>6</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C70" s="2">
         <v>2100</v>
@@ -1598,7 +1595,7 @@
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B72" s="3" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="C72" s="4">
         <f>SUM(C66:C70)-C71</f>
@@ -1614,7 +1611,7 @@
         <v>7</v>
       </c>
       <c r="B73" s="1" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C73" s="2">
         <v>82588</v>
@@ -1628,7 +1625,7 @@
         <v>7</v>
       </c>
       <c r="B74" s="1" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C74" s="2">
         <v>44219</v>
@@ -1642,7 +1639,7 @@
         <v>7</v>
       </c>
       <c r="B75" s="1" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C75" s="2">
         <v>14391</v>
@@ -1656,7 +1653,7 @@
         <v>7</v>
       </c>
       <c r="B76" s="1" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C76" s="2">
         <v>10331</v>
@@ -1670,7 +1667,7 @@
         <v>7</v>
       </c>
       <c r="B77" s="1" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C77" s="2">
         <v>68968</v>
@@ -1684,7 +1681,7 @@
         <v>7</v>
       </c>
       <c r="B78" s="1" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C78" s="2">
         <v>220497</v>
@@ -1695,7 +1692,7 @@
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B79" s="3" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="C79" s="4">
         <f>SUM(C73:C77)-C78</f>
@@ -1725,7 +1722,7 @@
         <v>8</v>
       </c>
       <c r="B81" s="1" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C81" s="2">
         <v>21992</v>
@@ -1739,7 +1736,7 @@
         <v>8</v>
       </c>
       <c r="B82" s="1" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C82" s="2">
         <v>9744</v>
@@ -1753,7 +1750,7 @@
         <v>8</v>
       </c>
       <c r="B83" s="1" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C83" s="2">
         <v>8986</v>
@@ -1767,7 +1764,7 @@
         <v>8</v>
       </c>
       <c r="B84" s="1" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C84" s="2">
         <v>8731</v>
@@ -1781,7 +1778,7 @@
         <v>8</v>
       </c>
       <c r="B85" s="1" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C85" s="2">
         <v>73553</v>
@@ -1792,7 +1789,7 @@
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B86" s="3" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="C86" s="4">
         <f>SUM(C80:C84)-C85</f>
@@ -1808,7 +1805,7 @@
         <v>9</v>
       </c>
       <c r="B87" s="1" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C87" s="2">
         <v>28150</v>
@@ -1836,7 +1833,7 @@
         <v>9</v>
       </c>
       <c r="B89" s="1" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C89" s="2">
         <v>28826</v>
@@ -1847,7 +1844,7 @@
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B90" s="3" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="C90" s="4">
         <f>SUM(C87:C88)-C89</f>
@@ -1863,7 +1860,7 @@
         <v>10</v>
       </c>
       <c r="B91" s="1" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C91" s="2">
         <v>7335</v>
@@ -1877,7 +1874,7 @@
         <v>10</v>
       </c>
       <c r="B92" s="1" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C92" s="2">
         <v>8189</v>
@@ -1891,7 +1888,7 @@
         <v>10</v>
       </c>
       <c r="B93" s="1" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C93" s="2">
         <v>15524</v>
@@ -1902,7 +1899,7 @@
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B94" s="3" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="C94" s="4">
         <f>SUM(C91:C92)-C93</f>
@@ -1918,7 +1915,7 @@
         <v>11</v>
       </c>
       <c r="B95" s="1" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C95" s="2">
         <v>5320</v>
@@ -1932,7 +1929,7 @@
         <v>11</v>
       </c>
       <c r="B96" s="1" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C96" s="2">
         <v>2698</v>
@@ -1946,7 +1943,7 @@
         <v>11</v>
       </c>
       <c r="B97" s="1" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C97" s="2">
         <v>8018</v>
@@ -1957,7 +1954,7 @@
     </row>
     <row r="98" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B98" s="3" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="C98" s="4">
         <f>SUM(C95:C96)-C97</f>
